--- a/Chain.of.Heroes/Tools/done/캐릭터/Wizard.xlsx
+++ b/Chain.of.Heroes/Tools/done/캐릭터/Wizard.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\junha\OneDrive\문서\GitHub\Chain_Of_Heroes\Chain.of.Heroes\Tools\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\junha\OneDrive\문서\GitHub\Chain_Of_Heroes\Chain.of.Heroes\Tools\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5391B4E-D0F6-4582-A001-5C1B02C59585}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ED8CDA4-9D47-466D-A373-B9F1915377CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="86">
   <si>
     <t>Int</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -329,7 +329,16 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>캐릭터 해금 맵 ID</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>UnlockMapID</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
     <t>UnitProperty</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -914,10 +923,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q44"/>
+  <dimension ref="A1:R44"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="I1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="O4" sqref="O4"/>
+      <selection activeCell="O5" sqref="O5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -937,9 +946,10 @@
     <col min="13" max="13" width="24.375" style="17" bestFit="1" customWidth="1"/>
     <col min="14" max="15" width="23.75" style="17" bestFit="1" customWidth="1"/>
     <col min="16" max="17" width="42.5" style="17" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="22.75" style="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -991,8 +1001,11 @@
       <c r="Q1" s="4" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R1" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" s="5"/>
       <c r="B2" s="6"/>
       <c r="C2" s="7"/>
@@ -1014,8 +1027,9 @@
       </c>
       <c r="P2" s="7"/>
       <c r="Q2" s="7"/>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R2" s="7"/>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
         <v>4</v>
       </c>
@@ -1067,8 +1081,11 @@
       <c r="Q3" s="11" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R3" s="11" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" s="12" t="s">
         <v>7</v>
       </c>
@@ -1112,7 +1129,7 @@
         <v>3</v>
       </c>
       <c r="O4" s="16" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="P4" s="16" t="s">
         <v>77</v>
@@ -1120,8 +1137,11 @@
       <c r="Q4" s="16" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R4" s="16" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" s="17">
         <v>10070000</v>
       </c>
@@ -1173,8 +1193,11 @@
       <c r="Q5" s="17" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R5" s="17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" s="17">
         <v>10070001</v>
       </c>
@@ -1226,8 +1249,11 @@
       <c r="Q6" s="17" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R6" s="17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7" s="17">
         <v>10070002</v>
       </c>
@@ -1279,8 +1305,11 @@
       <c r="Q7" s="17" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R7" s="17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8" s="17">
         <v>10070003</v>
       </c>
@@ -1332,8 +1361,11 @@
       <c r="Q8" s="17" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R8" s="17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" s="17">
         <v>10070004</v>
       </c>
@@ -1385,8 +1417,11 @@
       <c r="Q9" s="17" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R9" s="17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10" s="17">
         <v>10070005</v>
       </c>
@@ -1438,8 +1473,11 @@
       <c r="Q10" s="17" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R10" s="17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11" s="17">
         <v>10070006</v>
       </c>
@@ -1491,8 +1529,11 @@
       <c r="Q11" s="17" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R11" s="17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12" s="17">
         <v>10070007</v>
       </c>
@@ -1544,8 +1585,11 @@
       <c r="Q12" s="17" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R12" s="17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A13" s="17">
         <v>10070008</v>
       </c>
@@ -1597,8 +1641,11 @@
       <c r="Q13" s="17" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R13" s="17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A14" s="17">
         <v>10070009</v>
       </c>
@@ -1650,8 +1697,11 @@
       <c r="Q14" s="17" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R14" s="17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A15" s="17">
         <v>10070010</v>
       </c>
@@ -1703,8 +1753,11 @@
       <c r="Q15" s="17" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R15" s="17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A16" s="17">
         <v>10070011</v>
       </c>
@@ -1756,8 +1809,11 @@
       <c r="Q16" s="17" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R16" s="17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A17" s="17">
         <v>10070012</v>
       </c>
@@ -1809,8 +1865,11 @@
       <c r="Q17" s="17" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R17" s="17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A18" s="17">
         <v>10070013</v>
       </c>
@@ -1862,8 +1921,11 @@
       <c r="Q18" s="17" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R18" s="17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A19" s="17">
         <v>10070014</v>
       </c>
@@ -1915,8 +1977,11 @@
       <c r="Q19" s="17" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R19" s="17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A20" s="17">
         <v>10070015</v>
       </c>
@@ -1968,8 +2033,11 @@
       <c r="Q20" s="17" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R20" s="17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A21" s="17">
         <v>10070016</v>
       </c>
@@ -2021,8 +2089,11 @@
       <c r="Q21" s="17" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R21" s="17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A22" s="17">
         <v>10070017</v>
       </c>
@@ -2074,8 +2145,11 @@
       <c r="Q22" s="17" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R22" s="17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A23" s="17">
         <v>10070018</v>
       </c>
@@ -2127,8 +2201,11 @@
       <c r="Q23" s="17" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R23" s="17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A24" s="17">
         <v>10070019</v>
       </c>
@@ -2180,8 +2257,11 @@
       <c r="Q24" s="17" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R24" s="17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A25" s="17">
         <v>10070020</v>
       </c>
@@ -2233,8 +2313,11 @@
       <c r="Q25" s="17" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R25" s="17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A26" s="17">
         <v>10070021</v>
       </c>
@@ -2286,8 +2369,11 @@
       <c r="Q26" s="17" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R26" s="17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A27" s="17">
         <v>10070022</v>
       </c>
@@ -2339,8 +2425,11 @@
       <c r="Q27" s="17" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R27" s="17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A28" s="17">
         <v>10070023</v>
       </c>
@@ -2392,8 +2481,11 @@
       <c r="Q28" s="17" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R28" s="17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A29" s="17">
         <v>10070024</v>
       </c>
@@ -2445,8 +2537,11 @@
       <c r="Q29" s="17" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R29" s="17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A30" s="17">
         <v>10070025</v>
       </c>
@@ -2498,8 +2593,11 @@
       <c r="Q30" s="17" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R30" s="17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A31" s="17">
         <v>10070026</v>
       </c>
@@ -2551,8 +2649,11 @@
       <c r="Q31" s="17" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R31" s="17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A32" s="17">
         <v>10070027</v>
       </c>
@@ -2604,8 +2705,11 @@
       <c r="Q32" s="17" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R32" s="17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A33" s="17">
         <v>10070028</v>
       </c>
@@ -2657,8 +2761,11 @@
       <c r="Q33" s="17" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R33" s="17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A34" s="17">
         <v>10070029</v>
       </c>
@@ -2710,8 +2817,11 @@
       <c r="Q34" s="17" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R34" s="17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A35" s="17">
         <v>10070030</v>
       </c>
@@ -2763,8 +2873,11 @@
       <c r="Q35" s="17" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R35" s="17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A36" s="17">
         <v>10070031</v>
       </c>
@@ -2816,8 +2929,11 @@
       <c r="Q36" s="17" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R36" s="17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A37" s="17">
         <v>10070032</v>
       </c>
@@ -2869,8 +2985,11 @@
       <c r="Q37" s="17" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R37" s="17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A38" s="17">
         <v>10070033</v>
       </c>
@@ -2922,8 +3041,11 @@
       <c r="Q38" s="17" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R38" s="17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A39" s="17">
         <v>10070034</v>
       </c>
@@ -2975,8 +3097,11 @@
       <c r="Q39" s="17" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R39" s="17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A40" s="17">
         <v>10070035</v>
       </c>
@@ -3028,8 +3153,11 @@
       <c r="Q40" s="17" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R40" s="17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A41" s="17">
         <v>10070036</v>
       </c>
@@ -3081,8 +3209,11 @@
       <c r="Q41" s="17" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R41" s="17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A42" s="17">
         <v>10070037</v>
       </c>
@@ -3134,8 +3265,11 @@
       <c r="Q42" s="17" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R42" s="17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A43" s="17">
         <v>10070038</v>
       </c>
@@ -3187,8 +3321,11 @@
       <c r="Q43" s="17" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R43" s="17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A44" s="17">
         <v>10070039</v>
       </c>
@@ -3239,6 +3376,9 @@
       </c>
       <c r="Q44" s="17" t="s">
         <v>82</v>
+      </c>
+      <c r="R44" s="17">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
